--- a/01-input/data-orig/CONSOLIDADO EMA 2018-2024_USACH.xlsx
+++ b/01-input/data-orig/CONSOLIDADO EMA 2018-2024_USACH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a5e0cc4862715b/Escritorio/Diego/USACH/Encuesta EMA/Análisis Encuesta EMA/01-input/data-orig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="627" documentId="8_{9F31C997-5507-498B-BE2E-EFA64327D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03F06884-1B1B-4D00-88B9-6A450D8169E2}"/>
+  <xr:revisionPtr revIDLastSave="895" documentId="8_{9F31C997-5507-498B-BE2E-EFA64327D673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A0C0E4-3300-430A-A68F-F31CC8054C53}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{A39F7F87-8E9F-41EC-91E2-E2B99DC412A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{A39F7F87-8E9F-41EC-91E2-E2B99DC412A8}"/>
   </bookViews>
   <sheets>
     <sheet name="ACAD_GRADO" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="84">
   <si>
     <t>año</t>
   </si>
@@ -257,6 +257,42 @@
   </si>
   <si>
     <t>cantidad</t>
+  </si>
+  <si>
+    <t>n_pub_wos</t>
+  </si>
+  <si>
+    <t>n_pub_scopus</t>
+  </si>
+  <si>
+    <t>n_pub_scielo</t>
+  </si>
+  <si>
+    <t>n_pub_wos_f</t>
+  </si>
+  <si>
+    <t>n_pub_wos_m</t>
+  </si>
+  <si>
+    <t>n_pub_scopus_f</t>
+  </si>
+  <si>
+    <t>n_pub_scopus_m</t>
+  </si>
+  <si>
+    <t>n_pub_scielo_f</t>
+  </si>
+  <si>
+    <t>n_pub_scielo_m</t>
+  </si>
+  <si>
+    <t>n_pub_otras</t>
+  </si>
+  <si>
+    <t>n_pub_otras_f</t>
+  </si>
+  <si>
+    <t>n_pub_otras_m</t>
   </si>
 </sst>
 </file>
@@ -332,7 +368,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -357,6 +393,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -1765,15 +1803,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C32AE2-04AD-4F14-830E-0E22D1EF7A98}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1786,110 +1824,410 @@
       <c r="D1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="15">
         <f>C2+D2</f>
         <v>243</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="15">
+        <v>67</v>
+      </c>
+      <c r="D2" s="15">
         <v>176</v>
       </c>
-      <c r="D2" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="15">
+        <f>F2+G2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15">
+        <f>I2+J2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15">
+        <f>L2+M2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15">
+        <f>O2+P2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="15">
         <f t="shared" ref="B3:B8" si="0">C3+D3</f>
-        <v>935</v>
-      </c>
-      <c r="C3" s="1">
-        <v>245</v>
-      </c>
-      <c r="D3" s="1">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+        <v>2713</v>
+      </c>
+      <c r="C3" s="15">
+        <v>659</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2054</v>
+      </c>
+      <c r="E3" s="15">
+        <f t="shared" ref="E3:E8" si="1">F3+G3</f>
+        <v>1077</v>
+      </c>
+      <c r="F3" s="15">
+        <v>271</v>
+      </c>
+      <c r="G3" s="15">
+        <v>806</v>
+      </c>
+      <c r="H3" s="15">
+        <f t="shared" ref="H3:H8" si="2">I3+J3</f>
+        <v>1255</v>
+      </c>
+      <c r="I3" s="15">
+        <v>281</v>
+      </c>
+      <c r="J3" s="15">
+        <v>974</v>
+      </c>
+      <c r="K3" s="15">
+        <f t="shared" ref="K3:K8" si="3">L3+M3</f>
+        <v>80</v>
+      </c>
+      <c r="L3" s="15">
+        <v>25</v>
+      </c>
+      <c r="M3" s="15">
+        <v>55</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ref="N3:N7" si="4">O3+P3</f>
+        <v>301</v>
+      </c>
+      <c r="O3" s="15">
+        <v>82</v>
+      </c>
+      <c r="P3" s="15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="15">
         <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="C4" s="1">
-        <v>442</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+        <v>3502</v>
+      </c>
+      <c r="C4" s="15">
+        <v>849</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2653</v>
+      </c>
+      <c r="E4" s="15">
+        <f t="shared" si="1"/>
+        <v>1406</v>
+      </c>
+      <c r="F4" s="15">
+        <v>348</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1058</v>
+      </c>
+      <c r="H4" s="15">
+        <f t="shared" si="2"/>
+        <v>1543</v>
+      </c>
+      <c r="I4" s="15">
+        <v>362</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1181</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="L4" s="15">
+        <v>17</v>
+      </c>
+      <c r="M4" s="15">
+        <v>68</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="O4" s="15">
+        <v>122</v>
+      </c>
+      <c r="P4" s="15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>2021</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="15">
         <f t="shared" si="0"/>
-        <v>2194</v>
-      </c>
-      <c r="C5" s="1">
-        <v>456</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>4151</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1101</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3050</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" si="1"/>
+        <v>1615</v>
+      </c>
+      <c r="F5" s="15">
+        <v>414</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1201</v>
+      </c>
+      <c r="H5" s="15">
+        <f t="shared" si="2"/>
+        <v>1914</v>
+      </c>
+      <c r="I5" s="15">
+        <v>494</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1420</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="L5" s="15">
+        <v>29</v>
+      </c>
+      <c r="M5" s="15">
+        <v>59</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="4"/>
+        <v>534</v>
+      </c>
+      <c r="O5" s="15">
+        <v>164</v>
+      </c>
+      <c r="P5" s="15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>2022</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="15">
         <f t="shared" si="0"/>
-        <v>1976</v>
-      </c>
-      <c r="C6" s="1">
-        <v>539</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+        <v>2637</v>
+      </c>
+      <c r="C6" s="15">
+        <v>779</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1858</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="1"/>
+        <v>1028</v>
+      </c>
+      <c r="F6" s="15">
+        <v>297</v>
+      </c>
+      <c r="G6" s="15">
+        <v>731</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" si="2"/>
+        <v>1137</v>
+      </c>
+      <c r="I6" s="15">
+        <v>325</v>
+      </c>
+      <c r="J6" s="15">
+        <v>812</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="L6" s="15">
+        <v>42</v>
+      </c>
+      <c r="M6" s="15">
+        <v>46</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="4"/>
+        <v>385</v>
+      </c>
+      <c r="O6" s="15">
+        <v>115</v>
+      </c>
+      <c r="P6" s="15">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>2023</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15">
         <f t="shared" si="0"/>
-        <v>1713</v>
-      </c>
-      <c r="C7" s="1">
-        <v>444</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+        <v>2258</v>
+      </c>
+      <c r="C7" s="15">
+        <v>598</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1660</v>
+      </c>
+      <c r="E7" s="15">
+        <f>F7+G7</f>
+        <v>923</v>
+      </c>
+      <c r="F7" s="15">
+        <v>243</v>
+      </c>
+      <c r="G7" s="15">
+        <v>680</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="I7" s="15">
+        <v>264</v>
+      </c>
+      <c r="J7" s="15">
+        <v>760</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="L7" s="15">
+        <v>9</v>
+      </c>
+      <c r="M7" s="15">
+        <v>15</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="4"/>
+        <v>287</v>
+      </c>
+      <c r="O7" s="15">
+        <v>82</v>
+      </c>
+      <c r="P7" s="15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>2024</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>583</v>
-      </c>
-      <c r="C8" s="1">
-        <v>143</v>
-      </c>
-      <c r="D8" s="1">
-        <v>440</v>
+        <v>800</v>
+      </c>
+      <c r="C8" s="15">
+        <v>229</v>
+      </c>
+      <c r="D8" s="15">
+        <v>571</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="F8" s="15">
+        <v>97</v>
+      </c>
+      <c r="G8" s="15">
+        <v>239</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="I8" s="15">
+        <v>258</v>
+      </c>
+      <c r="J8" s="15">
+        <v>99</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <f>O8+P8</f>
+        <v>107</v>
+      </c>
+      <c r="O8" s="15">
+        <v>33</v>
+      </c>
+      <c r="P8" s="15">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD484B79-7B19-44C3-AD1D-FA646617FC97}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
